--- a/biology/Médecine/August_Friedrich_von_Froriep/August_Friedrich_von_Froriep.xlsx
+++ b/biology/Médecine/August_Friedrich_von_Froriep/August_Friedrich_von_Froriep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">August Friedrich von Froriep est un anatomiste et un médecin allemand, né le 10 septembre 1849 à Weimar et mort le 11 octobre 1917 à Tübingen.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Robert et de Wilhelmine (née Ammermüller) von Froriep. Il obtient son titre de docteur en médecine à Leipzig en 1874 et se marie avec Caroline Elise Lenoir l’année suivante. Il devient l’assistant de Christian Wilhelm Braune (1831-1892) en 1874. Après avoir enseigné l’anatomie à l’école de médecine de Leipzig, il devient, en 1878, prosecteur à l'université de Tübingen, puis professeur assistant en 1884, puis professeur en 1895. Il s’intéresse en particulier au développement du cerveau.
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.</t>
         </is>
